--- a/data/trans_bre/P3A_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9070247667702168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9669376070719979</v>
+        <v>0.9669376070719958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.09110727204428259</v>
@@ -649,7 +649,7 @@
         <v>0.4633340555673074</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1593623300751661</v>
+        <v>0.1593623300751657</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.915995756657284</v>
+        <v>-1.743855361055197</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.905715372713249</v>
+        <v>-2.514829251158649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8094924623266917</v>
+        <v>-0.7943555453197906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.083979567297414</v>
+        <v>-1.227322073668183</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6008417327258011</v>
+        <v>-0.5888836278254813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4998162876300203</v>
+        <v>-0.4646432763205246</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3307512658123599</v>
+        <v>-0.3138948162888242</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1469606700044359</v>
+        <v>-0.1662761163800447</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.355867519798599</v>
+        <v>1.152716525043668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.807331697599485</v>
+        <v>1.892888560015447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.769060086458823</v>
+        <v>2.80423585067982</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.968459202956669</v>
+        <v>2.968560301648802</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9998591912464018</v>
+        <v>0.7080097694138722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.592490992049677</v>
+        <v>0.5912957105174185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.222042542951001</v>
+        <v>2.131115002539044</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6240082370534875</v>
+        <v>0.5878008898831735</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3088687096542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.269640853633673</v>
+        <v>1.269640853633674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5468911979545623</v>
@@ -749,7 +749,7 @@
         <v>0.1445335707274409</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3363525828046758</v>
+        <v>0.3363525828046762</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.435068788995192</v>
+        <v>-3.657632580570063</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.087345164478521</v>
+        <v>-1.882981962128248</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.050778696714634</v>
+        <v>-1.09586377602011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.778292337550169</v>
+        <v>-0.6224464394314528</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7621331648028218</v>
+        <v>-0.7583120511499388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3860014135052796</v>
+        <v>-0.3730507617757783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4183129016264061</v>
+        <v>-0.4090771629780748</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1619210110864158</v>
+        <v>-0.1419634681843741</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.5320616577775237</v>
+        <v>-0.5181133740906653</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.734320085390684</v>
+        <v>1.789448296109472</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.768406190889399</v>
+        <v>1.797747032384072</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.772060702323303</v>
+        <v>2.820641131900063</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1559960194984426</v>
+        <v>-0.1490695134909786</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5214714979947085</v>
+        <v>0.5581888912449755</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.130619131374086</v>
+        <v>1.288810826234009</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9720488422773028</v>
+        <v>1.02404220557554</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.250860108447919</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.070060546038373</v>
+        <v>1.070060546038374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.08032385255752818</v>
@@ -849,7 +849,7 @@
         <v>0.1108761831517276</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2748026715693145</v>
+        <v>0.274802671569315</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.226376378776515</v>
+        <v>-2.226353550940167</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4236590126601118</v>
+        <v>-0.3103310698876826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.405645617067154</v>
+        <v>-1.486614012343327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9029633096221339</v>
+        <v>-0.7808452313989264</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4890716969420899</v>
+        <v>-0.4739474434243235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1993787082627625</v>
+        <v>-0.2014053335839534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4706973212014764</v>
+        <v>-0.5151103389998589</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1741631730171355</v>
+        <v>-0.1818637090104711</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.906642286121267</v>
+        <v>1.804829196782915</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.388476871321048</v>
+        <v>3.32854215949886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.007321491578874</v>
+        <v>1.765966598981982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.82941001220593</v>
+        <v>2.987342462107681</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7353438910707605</v>
+        <v>0.7326391700644173</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.417893613256056</v>
+        <v>2.324814745801054</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.29977642917728</v>
+        <v>1.227785174052285</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9658017338023734</v>
+        <v>1.013924761688978</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.859660513836652</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.552490654220028</v>
+        <v>1.552490654220025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1528033589100978</v>
@@ -949,7 +949,7 @@
         <v>0.2672654355624181</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3155837659678057</v>
+        <v>0.315583765967805</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.939656698456837</v>
+        <v>-3.051752765683024</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3428861490311668</v>
+        <v>-0.2988777817728957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7579834320275874</v>
+        <v>-0.7151683322547158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1946079527345497</v>
+        <v>-0.2138713270884244</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4071939590576542</v>
+        <v>-0.4162330484492464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07324038215075282</v>
+        <v>-0.0737682761039563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2096369574507278</v>
+        <v>-0.1775554053940168</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02972607180640075</v>
+        <v>-0.04750192672312614</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9893159164474703</v>
+        <v>1.104572014164598</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.693174605587019</v>
+        <v>3.790847725678715</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.617615214763221</v>
+        <v>2.649258352314017</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.282296239101775</v>
+        <v>3.458769708339526</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2090272278875309</v>
+        <v>0.2315229351147267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.087092755431836</v>
+        <v>1.110622279596108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.085344719200134</v>
+        <v>1.088939091236427</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.856037144180163</v>
+        <v>0.8492267182448862</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.879599317941695</v>
+        <v>-1.856056784061243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2056613905724667</v>
+        <v>-0.3703342973673042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2259031231371373</v>
+        <v>-0.219232969121647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2005407776126059</v>
+        <v>0.3144409084182659</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3967690681793161</v>
+        <v>-0.4002843037181166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.0495517529112176</v>
+        <v>-0.0883639384623526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.07564393941486312</v>
+        <v>-0.08594830274055916</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03946123938169765</v>
+        <v>0.05260067166550157</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.04792835493008102</v>
+        <v>0.01623859648264305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.708234146401657</v>
+        <v>1.720532269412302</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.441962059946058</v>
+        <v>1.420751377773057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.132552568211841</v>
+        <v>2.225556886318664</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.002122978595346174</v>
+        <v>0.004976775919606546</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4986853389175319</v>
+        <v>0.4956490627514816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6881056105423323</v>
+        <v>0.6781212722299942</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5328435750936646</v>
+        <v>0.5348001452210683</v>
       </c>
     </row>
     <row r="19">
